--- a/va_facility_data_2025-02-20/Battle Creek VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Battle%20Creek%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Battle Creek VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Battle%20Creek%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R10c143fb18c443b585c634ad23afcfbc"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rc4f414b512a24024b6cb60ce42e69010"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R6b56c37264944e36959e3ccac3a37f52"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R7697abc4a0f749cfbbec412865fc9666"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Reea727edd7f246b193e90742d77aa5ca"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rc874532eb9554f99840cd9d833de88d7"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R5d670ba13db348ac8da09c7b47d6a125"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R0aa0e920f1da4d599ea84ec28a4a3375"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Ra6fae26eac724e8fa9ba94a20d0fc7de"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rc5868e5ee27649b58aaf4abf3cfe2a21"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R5f258eb114de46b9bfaee777399f6b90"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R66639721c11747a0a41bf9fd3c730332"/>
   </x:sheets>
 </x:workbook>
 </file>
